--- a/Examples/PROMETHEE.xlsx
+++ b/Examples/PROMETHEE.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtc4455\Documents\IMSE 991 MCDM\Lecture Slides\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmc/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Case Study Example" sheetId="2" r:id="rId1"/>
     <sheet name="Partial Ranking" sheetId="3" r:id="rId2"/>
     <sheet name="Complete Ranking" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -26,7 +34,7 @@
     <author>Philou</author>
   </authors>
   <commentList>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment ref="B11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="0" shapeId="0">
+    <comment ref="A26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H26" authorId="0" shapeId="0">
+    <comment ref="H26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q26" authorId="0" shapeId="0">
+    <comment ref="Q26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z26" authorId="0" shapeId="0">
+    <comment ref="Z26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0" shapeId="0">
+    <comment ref="A35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H35" authorId="0" shapeId="0">
+    <comment ref="H35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q35" authorId="0" shapeId="0">
+    <comment ref="Q35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z35" authorId="0" shapeId="0">
+    <comment ref="Z35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0" shapeId="0">
+    <comment ref="A44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -212,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H44" authorId="0" shapeId="0">
+    <comment ref="H44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q44" authorId="0" shapeId="0">
+    <comment ref="Q44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z44" authorId="0" shapeId="0">
+    <comment ref="Z44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="83">
   <si>
     <t>Let us consider the following problem where a decision maker (DM) wants to rank 5 different cars He/She defines therefore 4 criteria.</t>
   </si>
@@ -552,11 +560,41 @@
   <si>
     <t>Total NF</t>
   </si>
+  <si>
+    <t>Diminish Returns Values</t>
+  </si>
+  <si>
+    <t>Max Dim. Ret.</t>
+  </si>
+  <si>
+    <t>Min Dim. Ret.</t>
+  </si>
+  <si>
+    <t>Determine where the comparison falls on the diminish returns function</t>
+  </si>
+  <si>
+    <t>For price column; each value in col - economic for economic col; each value in col - sport for sport col; each value in col luxury for luxury col, ect..</t>
+  </si>
+  <si>
+    <t>Multiply weights in columnwise</t>
+  </si>
+  <si>
+    <t>Raw data; convert categorical to numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum each cell location amongst the 4 criteria across each pairwise comparison matrices; E.g., xij for price, consumption, comfort, and power. Then sum row-wise and column-wise for positive and negative net flows. </t>
+  </si>
+  <si>
+    <t>Positive - Negative = Net</t>
+  </si>
+  <si>
+    <t>Total distance between comparisons' ratio amongst attributes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -652,7 +690,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,8 +731,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -720,11 +776,11 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,14 +789,14 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -749,7 +805,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -762,7 +818,7 @@
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="double">
         <color rgb="FF3F3F3F"/>
@@ -787,10 +843,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="double">
@@ -800,7 +856,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
@@ -811,7 +867,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="double">
@@ -846,16 +902,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,7 +938,7 @@
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="double">
         <color rgb="FF3F3F3F"/>
@@ -902,7 +958,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="double">
         <color rgb="FF3F3F3F"/>
@@ -912,7 +968,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -934,12 +990,21 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
         <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,7 +1014,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1082,6 +1147,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -1499,7 +1579,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1612,7 +1692,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -1669,10 +1749,10 @@
                   <c:v>-0.15625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.375E-2</c:v>
+                  <c:v>-0.09375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.375E-2</c:v>
+                  <c:v>0.09375</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.28125</c:v>
@@ -1680,7 +1760,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7511-4990-9A38-4B1FF319A251}"/>
             </c:ext>
@@ -1697,11 +1777,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="236570552"/>
-        <c:axId val="241827024"/>
+        <c:axId val="1743634224"/>
+        <c:axId val="1743640688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="236570552"/>
+        <c:axId val="1743634224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,7 +1824,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241827024"/>
+        <c:crossAx val="1743640688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1752,7 +1832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241827024"/>
+        <c:axId val="1743640688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,7 +1883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236570552"/>
+        <c:crossAx val="1743634224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1853,7 +1933,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1986,21 +2066,21 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.375E-2</c:v>
+                  <c:v>-0.09375</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>0.03125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B5C6-44B5-8292-E36BBDB25AF6}"/>
             </c:ext>
@@ -2069,7 +2149,7 @@
                   <c:v>-0.125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1875</c:v>
@@ -2077,7 +2157,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B5C6-44B5-8292-E36BBDB25AF6}"/>
             </c:ext>
@@ -2146,15 +2226,15 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B5C6-44B5-8292-E36BBDB25AF6}"/>
             </c:ext>
@@ -2220,18 +2300,18 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>0.03125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.125E-2</c:v>
+                  <c:v>-0.03125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B5C6-44B5-8292-E36BBDB25AF6}"/>
             </c:ext>
@@ -2247,11 +2327,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="241827808"/>
-        <c:axId val="241828200"/>
+        <c:axId val="1701657136"/>
+        <c:axId val="1719245840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="241827808"/>
+        <c:axId val="1701657136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,7 +2374,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241828200"/>
+        <c:crossAx val="1719245840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2302,7 +2382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241828200"/>
+        <c:axId val="1719245840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2353,7 +2433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241827808"/>
+        <c:crossAx val="1701657136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4332,9 +4412,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -4367,9 +4447,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -4575,48 +4655,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+    </row>
+    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -4636,7 +4724,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -4656,7 +4744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
@@ -4676,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -4696,7 +4784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
@@ -4716,7 +4804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -4736,7 +4824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
@@ -4756,12 +4844,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="62"/>
+    </row>
+    <row r="16" spans="1:7" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>19</v>
       </c>
@@ -4778,7 +4878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>20</v>
       </c>
@@ -4795,7 +4895,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
@@ -4812,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
@@ -4829,7 +4929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
@@ -4846,12 +4946,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D23" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+    </row>
+    <row r="24" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="66"/>
       <c r="H24" t="s">
         <v>39</v>
       </c>
@@ -4862,10 +4971,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="66"/>
       <c r="H25" t="s">
         <v>36</v>
       </c>
@@ -4876,7 +4989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -4950,7 +5063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>6</v>
       </c>
@@ -5044,7 +5157,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>8</v>
       </c>
@@ -5053,19 +5166,19 @@
         <v>14000</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:C31" si="16">B10-$B$10</f>
+        <f>B10-$B$10</f>
         <v>0</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:D30" si="17">B10-$B$11</f>
+        <f t="shared" ref="D28:D30" si="16">B10-$B$11</f>
         <v>-9000</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:E31" si="18">B10-$B$12</f>
+        <f t="shared" ref="E28:E31" si="17">B10-$B$12</f>
         <v>5000</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28:F31" si="19">B10-$B$13</f>
+        <f t="shared" ref="F28:F31" si="18">B10-$B$13</f>
         <v>3500</v>
       </c>
       <c r="H28" s="13" t="s">
@@ -5138,7 +5251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>10</v>
       </c>
@@ -5147,26 +5260,26 @@
         <v>23000</v>
       </c>
       <c r="C29">
+        <f>B11-$B$10</f>
+        <v>9000</v>
+      </c>
+      <c r="D29">
         <f t="shared" si="16"/>
-        <v>9000</v>
-      </c>
-      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E29">
+        <v>14000</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="18"/>
-        <v>14000</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="19"/>
         <v>12500</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29:I31" si="20">C11-$C$9</f>
+        <f t="shared" ref="I29:I31" si="19">C11-$C$9</f>
         <v>1</v>
       </c>
       <c r="J29">
@@ -5232,7 +5345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>12</v>
       </c>
@@ -5241,26 +5354,26 @@
         <v>9000</v>
       </c>
       <c r="C30">
+        <f t="shared" ref="C28:C31" si="20">B12-$B$10</f>
+        <v>-5000</v>
+      </c>
+      <c r="D30">
         <f t="shared" si="16"/>
-        <v>-5000</v>
-      </c>
-      <c r="D30">
+        <v>-14000</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="17"/>
-        <v>-14000</v>
-      </c>
-      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="19"/>
         <v>-1500</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.5</v>
       </c>
       <c r="J30">
@@ -5326,7 +5439,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>14</v>
       </c>
@@ -5335,7 +5448,7 @@
         <v>10500</v>
       </c>
       <c r="C31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>-3500</v>
       </c>
       <c r="D31">
@@ -5343,18 +5456,18 @@
         <v>-12500</v>
       </c>
       <c r="E31">
+        <f t="shared" si="17"/>
+        <v>1500</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="18"/>
-        <v>1500</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>14</v>
       </c>
       <c r="I31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>-0.5</v>
       </c>
       <c r="J31">
@@ -5420,11 +5533,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="D33" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+    </row>
+    <row r="34" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
       <c r="H34" t="s">
         <v>42</v>
       </c>
@@ -5435,7 +5558,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
         <v>30</v>
       </c>
@@ -5509,7 +5632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>6</v>
       </c>
@@ -5603,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>8</v>
       </c>
@@ -5697,7 +5820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>10</v>
       </c>
@@ -5791,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>12</v>
       </c>
@@ -5885,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
         <v>14</v>
       </c>
@@ -5979,11 +6102,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="D42" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+    </row>
+    <row r="43" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
       <c r="H43" t="s">
         <v>53</v>
       </c>
@@ -5994,7 +6127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>30</v>
       </c>
@@ -6068,7 +6201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>6</v>
       </c>
@@ -6162,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
         <v>8</v>
       </c>
@@ -6256,7 +6389,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>10</v>
       </c>
@@ -6350,7 +6483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>12</v>
       </c>
@@ -6444,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>14</v>
       </c>
@@ -6538,13 +6671,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+    </row>
+    <row r="52" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+    </row>
+    <row r="53" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:31" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+    </row>
+    <row r="54" spans="1:31" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>60</v>
       </c>
@@ -6567,7 +6718,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
         <v>6</v>
       </c>
@@ -6576,11 +6727,11 @@
         <v>0</v>
       </c>
       <c r="C55" s="35">
-        <f t="shared" ref="C55:F55" si="43">+C45+J45+S45+AB45</f>
+        <f>+C45+J45+S45+AB45</f>
         <v>0.5</v>
       </c>
       <c r="D55" s="35">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="C55:F55" si="43">+D45+K45+T45+AC45</f>
         <v>0.5</v>
       </c>
       <c r="E55" s="35">
@@ -6596,7 +6747,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>8</v>
       </c>
@@ -6625,7 +6776,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
         <v>10</v>
       </c>
@@ -6654,7 +6805,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>12</v>
       </c>
@@ -6683,7 +6834,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>14</v>
       </c>
@@ -6712,7 +6863,7 @@
         <v>0.46875</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A60" s="34" t="s">
         <v>57</v>
       </c>
@@ -6738,12 +6889,22 @@
       </c>
       <c r="G60" s="37"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C62" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+    </row>
+    <row r="63" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+    </row>
+    <row r="64" spans="1:31" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A64" s="41"/>
       <c r="B64" s="41" t="s">
         <v>58</v>
@@ -6755,7 +6916,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="40" t="s">
         <v>6</v>
       </c>
@@ -6772,7 +6933,7 @@
         <v>-0.125</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="40" t="s">
         <v>8</v>
       </c>
@@ -6789,7 +6950,7 @@
         <v>-0.15625</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="40" t="s">
         <v>10</v>
       </c>
@@ -6806,7 +6967,7 @@
         <v>-9.375E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="40" t="s">
         <v>12</v>
       </c>
@@ -6823,7 +6984,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="40" t="s">
         <v>14</v>
       </c>
@@ -6840,15 +7001,25 @@
         <v>0.28125</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="38"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+    </row>
+    <row r="73" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+    </row>
+    <row r="74" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A74" s="41"/>
       <c r="B74" s="41" t="s">
         <v>35</v>
@@ -6863,7 +7034,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="40" t="s">
         <v>6</v>
       </c>
@@ -6884,7 +7055,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="40" t="s">
         <v>8</v>
       </c>
@@ -6905,7 +7076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="40" t="s">
         <v>10</v>
       </c>
@@ -6926,7 +7097,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="40" t="s">
         <v>12</v>
       </c>
@@ -6947,7 +7118,7 @@
         <v>-0.125</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="40" t="s">
         <v>14</v>
       </c>
@@ -6968,12 +7139,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="55" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="41"/>
       <c r="B82" s="41" t="s">
         <v>35</v>
@@ -6988,7 +7159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="40" t="s">
         <v>6</v>
       </c>
@@ -7009,7 +7180,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="40" t="s">
         <v>8</v>
       </c>
@@ -7030,7 +7201,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="40" t="s">
         <v>10</v>
       </c>
@@ -7051,7 +7222,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="40" t="s">
         <v>12</v>
       </c>
@@ -7072,7 +7243,7 @@
         <v>-3.125E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="40" t="s">
         <v>14</v>
       </c>
@@ -7097,6 +7268,16 @@
   <sortState ref="B92:D96">
     <sortCondition descending="1" ref="C92:C96"/>
   </sortState>
+  <mergeCells count="8">
+    <mergeCell ref="C72:E73"/>
+    <mergeCell ref="D42:F43"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="D51:G53"/>
+    <mergeCell ref="C62:E63"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D33:F34"/>
+    <mergeCell ref="D23:F25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -7127,21 +7308,21 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="F4" s="39" t="s">
         <v>66</v>
       </c>
@@ -7170,7 +7351,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="F5" s="39" t="s">
         <v>6</v>
       </c>
@@ -7199,7 +7380,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="39" t="s">
         <v>64</v>
       </c>
@@ -7210,7 +7391,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="39" t="s">
         <v>14</v>
       </c>
@@ -7221,7 +7402,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="F12" s="39" t="s">
         <v>65</v>
       </c>
@@ -7232,7 +7413,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="F13" s="39" t="s">
         <v>12</v>
       </c>
@@ -7257,26 +7438,26 @@
       <selection activeCell="B10" sqref="B10:T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="60"/>
       <c r="C11" s="59" t="s">
         <v>71</v>
@@ -7313,7 +7494,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="58" t="s">
         <v>14</v>
       </c>

--- a/Examples/PROMETHEE.xlsx
+++ b/Examples/PROMETHEE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="Case Study Example" sheetId="2" r:id="rId1"/>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="85">
   <si>
     <t>Let us consider the following problem where a decision maker (DM) wants to rank 5 different cars He/She defines therefore 4 criteria.</t>
   </si>
@@ -589,6 +589,12 @@
   </si>
   <si>
     <t>Total distance between comparisons' ratio amongst attributes</t>
+  </si>
+  <si>
+    <t>E.g., Price; values &lt;= 2000 --&gt; 0 (no preference) but values &gt;= 5000 --&gt; 1 (preference. Values between 2000-5000 have gradual increasing preference.</t>
+  </si>
+  <si>
+    <t>Rowi - colj = xij</t>
   </si>
 </sst>
 </file>
@@ -690,7 +696,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -740,12 +746,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,9 +1147,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1159,8 +1156,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1777,11 +1777,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1743634224"/>
-        <c:axId val="1743640688"/>
+        <c:axId val="725550080"/>
+        <c:axId val="755762112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1743634224"/>
+        <c:axId val="725550080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,7 +1824,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1743640688"/>
+        <c:crossAx val="755762112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1832,7 +1832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1743640688"/>
+        <c:axId val="755762112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,7 +1883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1743634224"/>
+        <c:crossAx val="725550080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2327,11 +2327,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1701657136"/>
-        <c:axId val="1719245840"/>
+        <c:axId val="755729744"/>
+        <c:axId val="755861792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1701657136"/>
+        <c:axId val="755729744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2374,7 +2374,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1719245840"/>
+        <c:crossAx val="755861792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2382,7 +2382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1719245840"/>
+        <c:axId val="755861792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,7 +2433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1701657136"/>
+        <c:crossAx val="755729744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4655,8 +4655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62:E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4673,38 +4673,38 @@
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-    </row>
-    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+    </row>
+    <row r="6" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-    </row>
-    <row r="7" spans="1:7" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
@@ -4844,22 +4844,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="62" t="s">
+    <row r="15" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="62"/>
-    </row>
-    <row r="16" spans="1:7" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="65"/>
+      <c r="F15" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+    </row>
+    <row r="16" spans="1:8" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="62" t="s">
         <v>74</v>
       </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
     </row>
     <row r="17" spans="1:31" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
@@ -4877,6 +4885,9 @@
       <c r="E17" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
     </row>
     <row r="18" spans="1:31" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
@@ -4894,6 +4905,9 @@
       <c r="E18" s="19">
         <v>5000</v>
       </c>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
@@ -4950,16 +4964,19 @@
       <c r="A23" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="66" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="24" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="66"/>
       <c r="H24" t="s">
         <v>39</v>
@@ -4975,9 +4992,9 @@
       <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="66"/>
       <c r="H25" t="s">
         <v>36</v>
@@ -5008,6 +5025,7 @@
       <c r="F26" s="13" t="s">
         <v>14</v>
       </c>
+      <c r="G26" s="66"/>
       <c r="H26" t="s">
         <v>31</v>
       </c>
@@ -5354,7 +5372,7 @@
         <v>9000</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C28:C31" si="20">B12-$B$10</f>
+        <f t="shared" ref="C30:C31" si="20">B12-$B$10</f>
         <v>-5000</v>
       </c>
       <c r="D30">
@@ -5535,19 +5553,19 @@
     </row>
     <row r="32" spans="1:31" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
     </row>
     <row r="34" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
       <c r="H34" t="s">
         <v>42</v>
       </c>
@@ -6104,19 +6122,19 @@
     </row>
     <row r="41" spans="1:31" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="D42" s="64" t="s">
+      <c r="D42" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
     </row>
     <row r="43" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
       <c r="H43" t="s">
         <v>53</v>
       </c>
@@ -6673,27 +6691,27 @@
     </row>
     <row r="50" spans="1:31" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="64" t="s">
+      <c r="D51" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
     </row>
     <row r="52" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
     </row>
     <row r="53" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
     </row>
     <row r="54" spans="1:31" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
@@ -6731,7 +6749,7 @@
         <v>0.5</v>
       </c>
       <c r="D55" s="35">
-        <f t="shared" ref="C55:F55" si="43">+D45+K45+T45+AC45</f>
+        <f t="shared" ref="D55:F55" si="43">+D45+K45+T45+AC45</f>
         <v>0.5</v>
       </c>
       <c r="E55" s="35">
@@ -6890,19 +6908,19 @@
       <c r="G60" s="37"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C62" s="64" t="s">
+      <c r="C62" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
     </row>
     <row r="63" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
     </row>
     <row r="64" spans="1:31" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A64" s="41"/>
@@ -7008,16 +7026,16 @@
       <c r="A72" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="64" t="s">
+      <c r="C72" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
     </row>
     <row r="73" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
     </row>
     <row r="74" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A74" s="41"/>
@@ -7268,7 +7286,7 @@
   <sortState ref="B92:D96">
     <sortCondition descending="1" ref="C92:C96"/>
   </sortState>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="C72:E73"/>
     <mergeCell ref="D42:F43"/>
     <mergeCell ref="D5:F6"/>
@@ -7277,6 +7295,8 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D33:F34"/>
     <mergeCell ref="D23:F25"/>
+    <mergeCell ref="F15:H18"/>
+    <mergeCell ref="G23:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
